--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.615999999999988</v>
+        <v>5.384999999999991</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.8159</v>
+        <v>-11.5449</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.9552</v>
+        <v>-12.0474</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.912599999999999</v>
+        <v>4.905799999999997</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.4612</v>
+        <v>-11.3917</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.532999999999996</v>
+        <v>-9.037499999999993</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.74110000000001</v>
+        <v>-22.77720000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>5.819000000000001</v>
+        <v>6.539599999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,13 +669,13 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.017000000000003</v>
+        <v>8.525600000000008</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.611099999999999</v>
+        <v>-8.674600000000003</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -757,10 +757,10 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.5113</v>
+        <v>-12.68529999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.535799999999989</v>
+        <v>-8.165399999999998</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -791,10 +791,10 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.1238</v>
+        <v>-12.97</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.568399999999992</v>
+        <v>-9.194799999999987</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>4.898100000000005</v>
+        <v>4.783200000000004</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.742</v>
+        <v>-11.8219</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
